--- a/output/2016_tax_rates_by_CEX_states.xlsx
+++ b/output/2016_tax_rates_by_CEX_states.xlsx
@@ -1989,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <v>4.6121348945074905</v>
+        <v>9.663478434330043</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -2007,13 +2007,13 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>5.466794762567854</v>
+        <v>2.2017940289978917</v>
       </c>
       <c r="J10">
         <v>0.0</v>
       </c>
       <c r="K10">
-        <v>6.386857617931023</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
         <v>3.6043551405236918</v>
@@ -2028,40 +2028,40 @@
         <v>7.093056850385189</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>4.572825479844843</v>
       </c>
       <c r="Q10">
         <v>4.435640715449498</v>
       </c>
       <c r="R10">
-        <v>8.6</v>
+        <v>2.9819572676191917</v>
       </c>
       <c r="S10">
-        <v>5.999999999999999</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="T10">
-        <v>8.244190254587386</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="U10">
-        <v>3.592934305592377</v>
+        <v>2.066837232407834</v>
       </c>
       <c r="V10">
-        <v>3.0850400632157133</v>
+        <v>0.0</v>
       </c>
       <c r="W10">
-        <v>5.380703506464425</v>
+        <v>2.1671201072813897</v>
       </c>
       <c r="X10">
-        <v>5.165475366205847</v>
+        <v>4.137128678467276</v>
       </c>
       <c r="Y10">
-        <v>7.265</v>
+        <v>6.2545297559142465</v>
       </c>
       <c r="Z10">
-        <v>7.07</v>
+        <v>2.451446265356708</v>
       </c>
       <c r="AA10">
-        <v>5.137896056997099</v>
+        <v>0.0</v>
       </c>
       <c r="AB10">
         <v>0.17452767103119346</v>
@@ -2085,7 +2085,7 @@
         <v>0.0</v>
       </c>
       <c r="AI10">
-        <v>5.495083266247136</v>
+        <v>5.719589512720284</v>
       </c>
       <c r="AJ10">
         <v>0.41422966145102713</v>
@@ -2094,16 +2094,16 @@
         <v>2.6895443887045665</v>
       </c>
       <c r="AL10">
-        <v>7.593248788322596</v>
+        <v>3.058239895395497</v>
       </c>
       <c r="AM10">
         <v>0.0</v>
       </c>
       <c r="AN10">
-        <v>5.458185636957511</v>
+        <v>2.1983266368262413</v>
       </c>
       <c r="AO10">
-        <v>6.999999999999999</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="AP10">
         <v>0.0</v>
@@ -2112,19 +2112,19 @@
         <v>5.027729356440357</v>
       </c>
       <c r="AR10">
-        <v>5.797521974924777</v>
+        <v>4.595920166996558</v>
       </c>
       <c r="AS10">
-        <v>7.033655623650295</v>
+        <v>3.077531884554105</v>
       </c>
       <c r="AT10">
-        <v>0.0</v>
+        <v>1.668627809630534</v>
       </c>
       <c r="AU10">
-        <v>5.31183050158168</v>
+        <v>2.1393809699081876</v>
       </c>
       <c r="AV10">
-        <v>0.16860539341228434</v>
+        <v>0.0</v>
       </c>
       <c r="AW10">
         <v>7.411064358538111</v>
@@ -2133,13 +2133,13 @@
         <v>3.6123018653268506</v>
       </c>
       <c r="AY10">
-        <v>4.657536955195606</v>
+        <v>4.495520049625364</v>
       </c>
       <c r="AZ10">
         <v>2.786819523771528</v>
       </c>
       <c r="BA10">
-        <v>6.551166504938084</v>
+        <v>8.481848004303611</v>
       </c>
     </row>
     <row r="11" spans="1:53">
